--- a/CG-DN Case Study for Database_v1.2_Answer_and_Data.xlsx
+++ b/CG-DN Case Study for Database_v1.2_Answer_and_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\module3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F34E3A-5FEB-4407-A5FD-7DD2124E8E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D0E0C4-914A-45FD-BF3D-B29AE03FB9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="3" state="hidden" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="bo_phan" sheetId="5" r:id="rId5"/>
     <sheet name="nhan_vien" sheetId="6" r:id="rId6"/>
     <sheet name="loai_khach" sheetId="8" r:id="rId7"/>
-    <sheet name="khach_hang" sheetId="9" r:id="rId8"/>
-    <sheet name="kieu_thue" sheetId="10" r:id="rId9"/>
+    <sheet name="kieu_thue" sheetId="10" r:id="rId8"/>
+    <sheet name="khach_hang" sheetId="9" r:id="rId9"/>
     <sheet name="loai_dich_vu" sheetId="11" r:id="rId10"/>
     <sheet name="dich_vu" sheetId="12" r:id="rId11"/>
     <sheet name="dich_vu_di_kem" sheetId="14" r:id="rId12"/>
@@ -1643,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DD17D9-7DE0-437F-9102-7C533FE47E2C}">
   <dimension ref="B2:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2431,7 +2431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8183C1-0469-4B46-B3CA-64B1C5367381}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2597,7 +2597,9 @@
   </sheetPr>
   <dimension ref="B2:I197"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5194,6 +5196,83 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB48BEB-597B-437E-B673-52CE1CDBA3F9}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="str">
+        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
+        <v>kieu_thue</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC742F0C-576E-4C4C-B816-101D6860890D}">
   <dimension ref="B2:L14"/>
   <sheetViews>
@@ -5569,81 +5648,4 @@
   <pageSetup orientation="portrait" r:id="rId11"/>
   <legacyDrawing r:id="rId12"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB48BEB-597B-437E-B673-52CE1CDBA3F9}">
-  <dimension ref="B2:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="str">
-        <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>kieu_thue</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>